--- a/biology/Zoologie/Colopsus/Colopsus.xlsx
+++ b/biology/Zoologie/Colopsus/Colopsus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colopsus est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colopsus est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Sri Lanka et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Sri Lanka et en Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 01/05/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 01/05/2024) :
 Colopsus arkavathi Caleb, 2022
 Colopsus cancellatus Simon, 1902
 Colopsus ferruginus Kanesharatnam &amp; Benjamin, 2021
@@ -579,10 +595,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1902 dans les Salticidae. Il est placé en synonymie avec Evarcha par Prószyński en 1984[2]. Il est relevé de synonymie par Kanesharatnam et Benjamin en 2021[3].
-Cheliceroides[4], placé en synonymie par Logunov en 2021[5], a été relevé de synonymie par Lin, Yang et Zhang en 2024[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1902 dans les Salticidae. Il est placé en synonymie avec Evarcha par Prószyński en 1984. Il est relevé de synonymie par Kanesharatnam et Benjamin en 2021.
+Cheliceroides, placé en synonymie par Logunov en 2021, a été relevé de synonymie par Lin, Yang et Zhang en 2024.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1902 : « Études arachnologiques. 31e Mémoire. LI. Descriptions d'espèces nouvelles de la famille des Salticidae (suite). » Annales de la Société Entomologique de France, vol. 71 p. 389-421 (texte intégral).</t>
         </is>
